--- a/biology/Biochimie/Ferroxidase/Ferroxidase.xlsx
+++ b/biology/Biochimie/Ferroxidase/Ferroxidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ferroxidase ou ferroxydase (ou fer(II):oxygène oxydoréductase) est une alpha-2-glycoprotéine de la classe des oxydoréductases, donc une enzyme (EC 1.16.3.1). Les ferroxidases sont également des protéines de transport : elles transportent 90 % du cuivre du sang (une molécule transporte 7 ou 8 ions par molécule). Ces enzymes sont aussi impliquées dans le métabolisme du fer avec comme cofacteur le cuivre selon la réaction suivante :
 4 Fe2+ + 4 H+ + O2 ⇔ 4 Fe3+ + 2 H2O
@@ -512,7 +524,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les gènes humains encodant des protéines ayant une activité ferroxidase incluent :
 CP - céruloplasmine ou céruléoplasmine
@@ -546,7 +560,9 @@
           <t>Aspects génétiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est codée par le gène CP localisé sur le locus q23-q24  du chromosome 3. La mutation pathologique de ce gène est responsable de l'acéruléoplasminémie.
 </t>
@@ -579,13 +595,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Taux abaissés
-Des taux de céruloplasmine inférieurs à la normale peuvent correspondre à :
+          <t>Taux abaissés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Des taux de céruloplasmine inférieurs à la normale peuvent correspondre à :
 Maladie de Menkès  (très rare)
-Maladie de Wilson[1] (une maladie rare du stockage du cuivre)
-Acéruléoplasminémie
-Taux élevés
-Des taux de céruloplasmine supérieurs à la normale peuvent correspondre à :
+Maladie de Wilson (une maladie rare du stockage du cuivre)
+Acéruléoplasminémie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ferroxidase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferroxidase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Interprétation du taux de céruloplasmine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taux élevés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Des taux de céruloplasmine supérieurs à la normale peuvent correspondre à :
 grossesse
 lymphome
 inflammation aiguë et chronique : c'est une protéine de phase aiguë
